--- a/react-client/src/clients.xlsx
+++ b/react-client/src/clients.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,8 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sergey</t>
   </si>
@@ -22,20 +58,23 @@
     <t>Volik</t>
   </si>
   <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Phone</t>
+    <t>+380930285396</t>
+  </si>
+  <si>
+    <t>Bogdan</t>
+  </si>
+  <si>
+    <t>Chumak</t>
+  </si>
+  <si>
+    <t>+380631001769</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,19 +82,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,7 +120,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -82,6 +130,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -130,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,28 +439,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>930285396</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>